--- a/dokumen pendukung/Tabel Pensiun.xlsx
+++ b/dokumen pendukung/Tabel Pensiun.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pensiunsys-Jasamarga\dokumen pendukung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\simpensiun\dokumen pendukung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3148,8 +3148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T47"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3864,7 +3864,10 @@
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="K25" s="47">
+        <f>(10/12)*(1.8111-0.955)</f>
+        <v>0.7134166666666667</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -3892,7 +3895,7 @@
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="K26" s="47"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -3920,6 +3923,12 @@
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
+      <c r="I27">
+        <v>32</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -4380,7 +4389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:C40"/>
     </sheetView>
   </sheetViews>

--- a/dokumen pendukung/Tabel Pensiun.xlsx
+++ b/dokumen pendukung/Tabel Pensiun.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>Uang Pesangon</t>
   </si>
@@ -199,9 +199,6 @@
     <t>Untuk pensiun usia 31 s.d. 56</t>
   </si>
   <si>
-    <t>Untuk pensiun usia &lt;31</t>
-  </si>
-  <si>
     <t>Kelebihan Masa Kerja dalam Bulan:</t>
   </si>
   <si>
@@ -275,6 +272,15 @@
   </si>
   <si>
     <t>F4</t>
+  </si>
+  <si>
+    <t>usia pensiun &lt;46 dan usia masuk&gt;30</t>
+  </si>
+  <si>
+    <t>usia pensiun &lt;46 dan usia masuk&lt;=30</t>
+  </si>
+  <si>
+    <t>usia masuk = tanggal bakti - tanggal lahir</t>
   </si>
 </sst>
 </file>
@@ -1087,12 +1093,12 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1113,16 +1119,16 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>58</v>
-      </c>
       <c r="D5" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1143,14 +1149,14 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="49" t="s">
         <v>50</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>51</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1171,16 +1177,16 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="C7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="D7" s="48" t="s">
         <v>55</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>56</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1250,31 +1256,31 @@
         <v>34</v>
       </c>
       <c r="B10" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="D10" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="E10" s="47" t="s">
         <v>65</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>66</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="I10" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="J10" s="47" t="s">
         <v>69</v>
-      </c>
-      <c r="J10" s="47" t="s">
-        <v>70</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="26" t="s">
@@ -3146,16 +3152,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:T47"/>
+  <dimension ref="A3:T49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3242,10 +3248,12 @@
       <c r="C6" s="15"/>
       <c r="D6" s="3"/>
       <c r="E6" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47" t="s">
+        <v>72</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -3681,7 +3689,7 @@
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -3698,12 +3706,6 @@
     </row>
     <row r="20" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
-      <c r="B20" s="44">
-        <v>45</v>
-      </c>
-      <c r="C20" s="20">
-        <v>11.855</v>
-      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="44">
         <v>13</v>
@@ -3713,7 +3715,7 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -3730,12 +3732,6 @@
     </row>
     <row r="21" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
-      <c r="B21" s="44">
-        <v>44</v>
-      </c>
-      <c r="C21" s="20">
-        <v>10.9123</v>
-      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="44">
         <v>14</v>
@@ -3745,7 +3741,7 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="3"/>
@@ -3762,12 +3758,6 @@
     </row>
     <row r="22" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
-      <c r="B22" s="44">
-        <v>43</v>
-      </c>
-      <c r="C22" s="20">
-        <v>9.9910999999999994</v>
-      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="44">
         <v>15</v>
@@ -3777,7 +3767,7 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I22" s="43"/>
       <c r="J22" s="43"/>
@@ -3794,12 +3784,6 @@
     </row>
     <row r="23" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
-      <c r="B23" s="44">
-        <v>42</v>
-      </c>
-      <c r="C23" s="20">
-        <v>9.0902999999999992</v>
-      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="44">
         <v>16</v>
@@ -3821,12 +3805,6 @@
     </row>
     <row r="24" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
-      <c r="B24" s="44">
-        <v>41</v>
-      </c>
-      <c r="C24" s="20">
-        <v>8.2055000000000007</v>
-      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="44">
         <v>17</v>
@@ -3849,12 +3827,6 @@
     </row>
     <row r="25" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
-      <c r="B25" s="44">
-        <v>40</v>
-      </c>
-      <c r="C25" s="20">
-        <v>7.3436000000000003</v>
-      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="44">
         <v>18</v>
@@ -3880,12 +3852,6 @@
     </row>
     <row r="26" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
-      <c r="B26" s="44">
-        <v>39</v>
-      </c>
-      <c r="C26" s="20">
-        <v>6.5003000000000002</v>
-      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="44">
         <v>19</v>
@@ -3908,12 +3874,6 @@
     </row>
     <row r="27" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
-      <c r="B27" s="44">
-        <v>38</v>
-      </c>
-      <c r="C27" s="20">
-        <v>5.6750999999999996</v>
-      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="44">
         <v>20</v>
@@ -3942,12 +3902,6 @@
     </row>
     <row r="28" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
-      <c r="B28" s="44">
-        <v>37</v>
-      </c>
-      <c r="C28" s="20">
-        <v>4.8677000000000001</v>
-      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="44">
         <v>21</v>
@@ -3970,12 +3924,6 @@
     </row>
     <row r="29" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
-      <c r="B29" s="44">
-        <v>36</v>
-      </c>
-      <c r="C29" s="20">
-        <v>4.0777999999999999</v>
-      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="44">
         <v>22</v>
@@ -3998,12 +3946,6 @@
     </row>
     <row r="30" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
-      <c r="B30" s="44">
-        <v>35</v>
-      </c>
-      <c r="C30" s="20">
-        <v>3.3052000000000001</v>
-      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="44">
         <v>23</v>
@@ -4026,12 +3968,6 @@
     </row>
     <row r="31" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
-      <c r="B31" s="44">
-        <v>34</v>
-      </c>
-      <c r="C31" s="20">
-        <v>2.5478999999999998</v>
-      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="44">
         <v>24</v>
@@ -4054,12 +3990,6 @@
     </row>
     <row r="32" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
-      <c r="B32" s="44">
-        <v>33</v>
-      </c>
-      <c r="C32" s="20">
-        <v>1.8110999999999999</v>
-      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="44">
         <v>25</v>
@@ -4082,12 +4012,6 @@
     </row>
     <row r="33" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
-      <c r="B33" s="44">
-        <v>32</v>
-      </c>
-      <c r="C33" s="20">
-        <v>0.95499999999999996</v>
-      </c>
       <c r="D33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -4104,13 +4028,10 @@
     </row>
     <row r="34" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
-      <c r="B34" s="44">
-        <v>31</v>
-      </c>
-      <c r="C34" s="20">
-        <v>0.14560000000000001</v>
-      </c>
       <c r="D34" s="3"/>
+      <c r="E34" t="s">
+        <v>70</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="K34" s="3"/>
@@ -4129,6 +4050,12 @@
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
       <c r="D35" s="3"/>
+      <c r="E35" s="44">
+        <v>45</v>
+      </c>
+      <c r="F35" s="20">
+        <v>11.855</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="K35" s="3"/>
@@ -4147,6 +4074,12 @@
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
       <c r="D36" s="3"/>
+      <c r="E36" s="44">
+        <v>44</v>
+      </c>
+      <c r="F36" s="20">
+        <v>10.9123</v>
+      </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="K36" s="3"/>
@@ -4165,6 +4098,12 @@
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
       <c r="D37" s="3"/>
+      <c r="E37" s="44">
+        <v>43</v>
+      </c>
+      <c r="F37" s="20">
+        <v>9.9910999999999994</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="K37" s="3"/>
@@ -4183,6 +4122,12 @@
       <c r="B38" s="21"/>
       <c r="C38" s="22"/>
       <c r="D38" s="3"/>
+      <c r="E38" s="44">
+        <v>42</v>
+      </c>
+      <c r="F38" s="20">
+        <v>9.0902999999999992</v>
+      </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -4203,6 +4148,12 @@
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
       <c r="D39" s="3"/>
+      <c r="E39" s="44">
+        <v>41</v>
+      </c>
+      <c r="F39" s="20">
+        <v>8.2055000000000007</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -4223,6 +4174,12 @@
       <c r="B40" s="21"/>
       <c r="C40" s="22"/>
       <c r="D40" s="3"/>
+      <c r="E40" s="44">
+        <v>40</v>
+      </c>
+      <c r="F40" s="20">
+        <v>7.3436000000000003</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -4243,6 +4200,12 @@
       <c r="B41" s="21"/>
       <c r="C41" s="22"/>
       <c r="D41" s="3"/>
+      <c r="E41" s="44">
+        <v>39</v>
+      </c>
+      <c r="F41" s="20">
+        <v>6.5003000000000002</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -4263,6 +4226,12 @@
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
       <c r="D42" s="3"/>
+      <c r="E42" s="44">
+        <v>38</v>
+      </c>
+      <c r="F42" s="20">
+        <v>5.6750999999999996</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -4283,6 +4252,12 @@
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
       <c r="D43" s="3"/>
+      <c r="E43" s="44">
+        <v>37</v>
+      </c>
+      <c r="F43" s="20">
+        <v>4.8677000000000001</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -4303,6 +4278,12 @@
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
       <c r="D44" s="3"/>
+      <c r="E44" s="44">
+        <v>36</v>
+      </c>
+      <c r="F44" s="20">
+        <v>4.0777999999999999</v>
+      </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -4323,6 +4304,12 @@
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
       <c r="D45" s="3"/>
+      <c r="E45" s="44">
+        <v>35</v>
+      </c>
+      <c r="F45" s="20">
+        <v>3.3052000000000001</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -4343,6 +4330,12 @@
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
       <c r="D46" s="3"/>
+      <c r="E46" s="44">
+        <v>34</v>
+      </c>
+      <c r="F46" s="20">
+        <v>2.5478999999999998</v>
+      </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -4363,6 +4356,12 @@
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
       <c r="D47" s="3"/>
+      <c r="E47" s="44">
+        <v>33</v>
+      </c>
+      <c r="F47" s="20">
+        <v>1.8110999999999999</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -4378,6 +4377,22 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
     </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E48" s="44">
+        <v>32</v>
+      </c>
+      <c r="F48" s="20">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E49" s="44">
+        <v>31</v>
+      </c>
+      <c r="F49" s="20">
+        <v>0.14560000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -4390,7 +4405,7 @@
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C40"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dokumen pendukung/Tabel Pensiun.xlsx
+++ b/dokumen pendukung/Tabel Pensiun.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Manfaat Pasti" sheetId="3" r:id="rId1"/>
@@ -3154,14 +3154,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T49"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -4404,7 +4404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/dokumen pendukung/Tabel Pensiun.xlsx
+++ b/dokumen pendukung/Tabel Pensiun.xlsx
@@ -3154,8 +3154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
